--- a/Intermediate I/Week 5/workbook/W5_V4 Automation.xlsx
+++ b/Intermediate I/Week 5/workbook/W5_V4 Automation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\002 Course 2 - Intermediate I\05 Week 5\01 Workbooks\Actual Recorded\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate I\Week 5\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA22E32-DC4F-4810-8CCF-8772EDAF6702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24684" windowHeight="11640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -17,34 +18,42 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Staff!$A$4:$H$24</definedName>
-    <definedName name="Annual_Salary">Staff!$N$4:$N$38</definedName>
-    <definedName name="Date_of_Hire">Staff!$F$4:$F$38</definedName>
-    <definedName name="Department">Staff!$H$4:$H$38</definedName>
-    <definedName name="Email">Staff!$E$4:$E$38</definedName>
-    <definedName name="Emp_ID">Staff!$A$4:$A$38</definedName>
-    <definedName name="Extension">Staff!$K$4:$K$38</definedName>
-    <definedName name="First">Staff!$C$4:$C$38</definedName>
-    <definedName name="Floor">Staff!$J$4:$J$38</definedName>
-    <definedName name="Gender">Staff!$D$4:$D$38</definedName>
-    <definedName name="Last">Staff!$B$4:$B$38</definedName>
-    <definedName name="Last_Review">Staff!$L$4:$L$38</definedName>
-    <definedName name="Location">Staff!$I$4:$I$38</definedName>
-    <definedName name="Next_Review">Staff!$M$4:$M$38</definedName>
-    <definedName name="Pension">Staff!$O$4:$O$38</definedName>
+    <definedName name="Annual_Salary">Staff!$N$4:$N$39</definedName>
+    <definedName name="Date_of_Hire">Staff!$F$4:$F$39</definedName>
+    <definedName name="Department">Staff!$H$4:$H$39</definedName>
+    <definedName name="Email">Staff!$E$4:$E$39</definedName>
+    <definedName name="Emp_ID">Staff!$A$4:$A$39</definedName>
+    <definedName name="Extension">Staff!$K$4:$K$39</definedName>
+    <definedName name="First">Staff!$C$4:$C$39</definedName>
+    <definedName name="Floor">Staff!$J$4:$J$39</definedName>
+    <definedName name="Gender">Staff!$D$4:$D$39</definedName>
+    <definedName name="Last">Staff!$B$4:$B$39</definedName>
+    <definedName name="Last_Review">Staff!$L$4:$L$39</definedName>
+    <definedName name="Location">Staff!$I$4:$I$39</definedName>
+    <definedName name="Next_Review">Staff!$M$4:$M$39</definedName>
+    <definedName name="Pension">Staff!$O$4:$O$39</definedName>
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
-    <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
+    <definedName name="Years_Service">Staff!$G$4:$G$39</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
   <si>
     <t>Emp ID</t>
   </si>
@@ -557,12 +566,27 @@
   </si>
   <si>
     <t>Annual Salary</t>
+  </si>
+  <si>
+    <t>E1254</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Package</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -757,15 +781,57 @@
     <cellStyle name="Output" xfId="3" builtinId="21"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="35">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -793,16 +859,58 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -810,20 +918,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -878,66 +977,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -980,48 +1023,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1042,6 +1044,40 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1290,7 +1326,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
@@ -1737,6 +1773,51 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1795,9 +1876,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stats!$A$16:$A$21</c:f>
+              <c:f>Stats!$A$16:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Executive</c:v>
                 </c:pt>
@@ -1816,15 +1897,18 @@
                 <c:pt idx="5">
                   <c:v>Human Resources</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marketing</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$B$16:$B$21</c:f>
+              <c:f>Stats!$B$16:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>197800</c:v>
                 </c:pt>
@@ -1842,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>149700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,38 +3189,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:O39" totalsRowCount="1" dataDxfId="29">
-  <autoFilter ref="A3:O38"/>
-  <sortState ref="A4:O38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:P40" totalsRowCount="1" dataDxfId="28">
+  <autoFilter ref="A3:P39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O38">
     <sortCondition ref="A3:A38"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Emp ID" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" name="Last"/>
-    <tableColumn id="3" name="First" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="4" name="Gender" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="5" name="Email">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Emp ID" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Last"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="First" dataDxfId="26" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gender" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Email">
       <calculatedColumnFormula>LOWER(C4&amp;"."&amp;B4&amp;"@pushpin.com")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Date of Hire" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="Years Service" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date of Hire" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Years Service" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="10">
       <calculatedColumnFormula>YEARFRAC(F4,TODAY())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Department" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="9" name="Location" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="10" name="Floor" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Department" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Location" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Floor" dataDxfId="20" totalsRowDxfId="7">
       <calculatedColumnFormula>LEFT(I4,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Extension" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Extension" dataDxfId="19" totalsRowDxfId="6">
       <calculatedColumnFormula>RIGHT(I4,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Last Review" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="13" name="Next Review" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Last Review" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Next Review" dataDxfId="17" totalsRowDxfId="4">
       <calculatedColumnFormula>L4+365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Annual Salary" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="15" name="Pension" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Annual Salary" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Pension" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
       <calculatedColumnFormula>N4*Pension_Rate</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{4FCB3287-B5BB-45D3-9ABB-285CA0B6EDEE}" name="Package" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3141,22 +3231,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A15:D21" totalsRowShown="0">
-  <autoFilter ref="A15:D21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A15:D22" totalsRowShown="0">
+  <autoFilter ref="A15:D22" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Department" dataDxfId="3"/>
-    <tableColumn id="2" name="Total Salary" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Department" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total Salary" dataDxfId="33">
       <calculatedColumnFormula>SUMIFS(Annual_Salary,Department,A16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="M" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="M" dataDxfId="32">
       <calculatedColumnFormula>SUMIFS(Annual_Salary,Department,A16,Gender,$C$15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="F" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="F" dataDxfId="31">
       <calculatedColumnFormula>SUMIFS(Annual_Salary,Department,A16,Gender,$D$15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3460,33 +3550,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" customWidth="1"/>
+    <col min="15" max="15" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="18" t="s">
         <v>95</v>
       </c>
@@ -3497,7 +3588,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3543,8 +3634,11 @@
       <c r="O3" t="s">
         <v>160</v>
       </c>
+      <c r="P3" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3660,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G38" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
-        <v>16.463888888888889</v>
+        <v>19.380555555555556</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -3596,8 +3690,12 @@
         <f t="shared" ref="O4:O38" si="5">N4*Pension_Rate</f>
         <v>9126</v>
       </c>
+      <c r="P4" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>110526</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3619,7 +3717,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>16.391666666666666</v>
+        <v>19.308333333333334</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -3649,8 +3747,12 @@
         <f t="shared" si="5"/>
         <v>6327</v>
       </c>
+      <c r="P5" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>76627</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3672,7 +3774,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>14.852777777777778</v>
+        <v>17.769444444444446</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>55</v>
@@ -3702,8 +3804,12 @@
         <f t="shared" si="5"/>
         <v>6192</v>
       </c>
+      <c r="P6" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>74992</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -3725,7 +3831,7 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>13.238888888888889</v>
+        <v>16.155555555555555</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -3755,8 +3861,12 @@
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
+      <c r="P7" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>64528</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -3778,7 +3888,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12.008333333333333</v>
+        <v>14.925000000000001</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>55</v>
@@ -3808,8 +3918,12 @@
         <f t="shared" si="5"/>
         <v>5661</v>
       </c>
+      <c r="P8" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>68561</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -3831,7 +3945,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11.475</v>
+        <v>14.391666666666667</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>24</v>
@@ -3861,8 +3975,12 @@
         <f t="shared" si="5"/>
         <v>5256</v>
       </c>
+      <c r="P9" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>63656</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -3884,7 +4002,7 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11.322222222222223</v>
+        <v>14.238888888888889</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>55</v>
@@ -3914,8 +4032,12 @@
         <f t="shared" si="5"/>
         <v>5328</v>
       </c>
+      <c r="P10" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>64528</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -3937,7 +4059,7 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.71111111111111</v>
+        <v>13.627777777777778</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -3967,8 +4089,12 @@
         <f t="shared" si="5"/>
         <v>4644</v>
       </c>
+      <c r="P11" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>56244</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -3990,7 +4116,7 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2638888888888893</v>
+        <v>12.180555555555555</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>55</v>
@@ -4020,8 +4146,12 @@
         <f t="shared" si="5"/>
         <v>5238</v>
       </c>
+      <c r="P12" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>63438</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
@@ -4043,7 +4173,7 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8944444444444439</v>
+        <v>11.811111111111112</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>24</v>
@@ -4073,8 +4203,12 @@
         <f t="shared" si="5"/>
         <v>5022</v>
       </c>
+      <c r="P13" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>60822</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -4096,7 +4230,7 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5972222222222223</v>
+        <v>10.513888888888889</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>55</v>
@@ -4126,8 +4260,12 @@
         <f t="shared" si="5"/>
         <v>4995</v>
       </c>
+      <c r="P14" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>60495</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
@@ -4149,7 +4287,7 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4361111111111109</v>
+        <v>10.352777777777778</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>59</v>
@@ -4179,8 +4317,12 @@
         <f t="shared" si="5"/>
         <v>4356</v>
       </c>
+      <c r="P15" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>52756</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
@@ -4202,7 +4344,7 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4083333333333332</v>
+        <v>9.3249999999999993</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>55</v>
@@ -4232,8 +4374,12 @@
         <f t="shared" si="5"/>
         <v>5337</v>
       </c>
+      <c r="P16" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>64637</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -4255,7 +4401,7 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0805555555555557</v>
+        <v>8.9972222222222218</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>55</v>
@@ -4285,8 +4431,12 @@
         <f t="shared" si="5"/>
         <v>5040</v>
       </c>
+      <c r="P17" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>61040</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -4308,7 +4458,7 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3111111111111109</v>
+        <v>8.2277777777777779</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -4338,8 +4488,12 @@
         <f t="shared" si="5"/>
         <v>5688</v>
       </c>
+      <c r="P18" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>68888</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -4361,7 +4515,7 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8194444444444446</v>
+        <v>7.7361111111111107</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -4391,8 +4545,12 @@
         <f t="shared" si="5"/>
         <v>4653</v>
       </c>
+      <c r="P19" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>56353</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
@@ -4414,7 +4572,7 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7222222222222223</v>
+        <v>7.6388888888888893</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>59</v>
@@ -4444,8 +4602,12 @@
         <f t="shared" si="5"/>
         <v>4464</v>
       </c>
+      <c r="P20" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>54064</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -4467,7 +4629,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.197222222222222</v>
+        <v>7.1138888888888889</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>24</v>
@@ -4497,8 +4659,12 @@
         <f t="shared" si="5"/>
         <v>4059</v>
       </c>
+      <c r="P21" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>49159</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -4520,7 +4686,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1388888888888888</v>
+        <v>6.0555555555555554</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>13</v>
@@ -4550,8 +4716,12 @@
         <f t="shared" si="5"/>
         <v>3789</v>
       </c>
+      <c r="P22" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>45889</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -4573,7 +4743,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8527777777777779</v>
+        <v>5.7694444444444448</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
@@ -4603,8 +4773,12 @@
         <f t="shared" si="5"/>
         <v>5652</v>
       </c>
+      <c r="P23" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>68452</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -4626,7 +4800,7 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8250000000000002</v>
+        <v>5.7416666666666663</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>55</v>
@@ -4656,8 +4830,12 @@
         <f t="shared" si="5"/>
         <v>4923</v>
       </c>
+      <c r="P24" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>59623</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -4679,7 +4857,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6805555555555554</v>
+        <v>5.5972222222222223</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>55</v>
@@ -4709,8 +4887,12 @@
         <f t="shared" si="5"/>
         <v>4734</v>
       </c>
+      <c r="P25" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>57334</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -4732,7 +4914,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.588888888888889</v>
+        <v>5.5055555555555555</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>15</v>
@@ -4762,8 +4944,12 @@
         <f t="shared" si="5"/>
         <v>5265</v>
       </c>
+      <c r="P26" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>63765</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
@@ -4785,7 +4971,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5527777777777776</v>
+        <v>5.4694444444444441</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>55</v>
@@ -4815,8 +5001,12 @@
         <f t="shared" si="5"/>
         <v>4185</v>
       </c>
+      <c r="P27" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>50685</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -4838,7 +5028,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2277777777777779</v>
+        <v>5.1444444444444448</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>55</v>
@@ -4868,8 +5058,12 @@
         <f t="shared" si="5"/>
         <v>5058</v>
       </c>
+      <c r="P28" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>61258</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
@@ -4891,7 +5085,7 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9333333333333333</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>15</v>
@@ -4921,8 +5115,12 @@
         <f t="shared" si="5"/>
         <v>4941</v>
       </c>
+      <c r="P29" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>59841</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
@@ -4944,7 +5142,7 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9305555555555556</v>
+        <v>4.8472222222222223</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>17</v>
@@ -4974,8 +5172,12 @@
         <f t="shared" si="5"/>
         <v>4311</v>
       </c>
+      <c r="P30" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>52211</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
@@ -4997,7 +5199,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6805555555555556</v>
+        <v>4.5972222222222223</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>55</v>
@@ -5027,8 +5229,12 @@
         <f t="shared" si="5"/>
         <v>4464</v>
       </c>
+      <c r="P31" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>54064</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
@@ -5050,7 +5256,7 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6722222222222223</v>
+        <v>4.5888888888888886</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>55</v>
@@ -5080,8 +5286,12 @@
         <f t="shared" si="5"/>
         <v>3204</v>
       </c>
+      <c r="P32" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>38804</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
@@ -5103,7 +5313,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5444444444444445</v>
+        <v>4.4611111111111112</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>59</v>
@@ -5133,8 +5343,12 @@
         <f t="shared" si="5"/>
         <v>5265</v>
       </c>
+      <c r="P33" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>63765</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
@@ -5156,7 +5370,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5083333333333333</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>55</v>
@@ -5186,8 +5400,12 @@
         <f t="shared" si="5"/>
         <v>4626</v>
       </c>
+      <c r="P34" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>56026</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>91</v>
       </c>
@@ -5209,7 +5427,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6694444444444444</v>
+        <v>3.5861111111111112</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
@@ -5239,8 +5457,12 @@
         <f t="shared" si="5"/>
         <v>3474</v>
       </c>
+      <c r="P35" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>42074</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>92</v>
       </c>
@@ -5262,7 +5484,7 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58611111111111114</v>
+        <v>3.5027777777777778</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>55</v>
@@ -5292,8 +5514,12 @@
         <f t="shared" si="5"/>
         <v>3645</v>
       </c>
+      <c r="P36" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>44145</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
@@ -5315,7 +5541,7 @@
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5222222222222221</v>
+        <v>10.438888888888888</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>22</v>
@@ -5345,8 +5571,12 @@
         <f t="shared" si="5"/>
         <v>8676</v>
       </c>
+      <c r="P37" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>105076</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>94</v>
       </c>
@@ -5368,7 +5598,7 @@
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16388888888888889</v>
+        <v>3.0805555555555557</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>24</v>
@@ -5398,51 +5628,113 @@
         <f t="shared" si="5"/>
         <v>3330</v>
       </c>
+      <c r="P38" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>40330</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" t="str">
+        <f>LOWER(C39&amp;"."&amp;B39&amp;"@pushpin.com")</f>
+        <v>william.grey@pushpin.com</v>
+      </c>
+      <c r="F39" s="7">
+        <v>44000</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6" t="str">
+        <f>LEFT(I39,2)</f>
+        <v/>
+      </c>
+      <c r="K39" s="6" t="str">
+        <f>RIGHT(I39,4)</f>
+        <v/>
+      </c>
+      <c r="L39" s="7">
+        <v>44000</v>
+      </c>
+      <c r="M39" s="7">
+        <f>L39+365</f>
+        <v>44365</v>
+      </c>
+      <c r="N39" s="8">
+        <v>97000</v>
+      </c>
+      <c r="O39" s="16">
+        <f>N39*Pension_Rate</f>
+        <v>8730</v>
+      </c>
+      <c r="P39" s="8">
+        <f>Table1[[#This Row],[Annual Salary]]+Table1[[#This Row],[Pension]]</f>
+        <v>105730</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <f>SUBTOTAL(103,Table1[Emp ID])</f>
-        <v>35</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="19"/>
-      <c r="G39" s="4">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="19"/>
+      <c r="G40" s="4">
         <f ca="1">SUBTOTAL(101,Table1[Years Service])</f>
-        <v>5.9792063492063479</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="8">
+        <v>8.6487654320987666</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="8">
         <f>SUBTOTAL(109,Table1[Annual Salary])</f>
-        <v>1958400</v>
-      </c>
-      <c r="O39" s="16">
+        <v>2055400</v>
+      </c>
+      <c r="O40" s="16">
         <f>SUBTOTAL(109,Table1[Pension])</f>
-        <v>176256</v>
+        <v>184986</v>
+      </c>
+      <c r="P40" s="8">
+        <f>SUBTOTAL(109,Table1[Package])</f>
+        <v>2240386</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E43" s="13"/>
     </row>
+    <row r="44" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="13"/>
+    </row>
   </sheetData>
-  <sortState ref="A4:N38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
     <sortCondition ref="A7"/>
   </sortState>
-  <conditionalFormatting sqref="M4:M38">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="M4:M39">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>M4&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5455,73 +5747,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="2" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B3" s="17">
         <f>COUNTA(Emp_ID)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="10">
         <f>SUM(Annual_Salary)</f>
-        <v>1958400</v>
+        <v>2055400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="10">
         <f>AVERAGE(Annual_Salary)</f>
-        <v>55954.285714285717</v>
+        <v>57094.444444444445</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="11">
         <f ca="1">MAX(Years_Service)</f>
-        <v>16.463888888888889</v>
+        <v>19.380555555555556</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="12">
         <f>MAX(Date_of_Hire)</f>
-        <v>42874</v>
+        <v>44000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>164</v>
       </c>
@@ -5529,16 +5821,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="6">
         <f>COUNTIFS(Gender,"M")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>169</v>
       </c>
@@ -5547,7 +5839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5561,7 +5853,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -5578,7 +5870,7 @@
         <v>96400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -5595,7 +5887,7 @@
         <v>100100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -5612,7 +5904,7 @@
         <v>411400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -5629,7 +5921,7 @@
         <v>196300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -5646,7 +5938,7 @@
         <v>113400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -5661,6 +5953,23 @@
       <c r="D21" s="16">
         <f t="shared" si="2"/>
         <v>63200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="16">
+        <f>SUMIFS(Annual_Salary,Department,A22)</f>
+        <v>97000</v>
+      </c>
+      <c r="C22" s="16">
+        <f>SUMIFS(Annual_Salary,Department,A22,Gender,$C$15)</f>
+        <v>97000</v>
+      </c>
+      <c r="D22" s="16">
+        <f>SUMIFS(Annual_Salary,Department,A22,Gender,$D$15)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
